--- a/Docs/Spara orginal/Agressodata.xlsx
+++ b/Docs/Spara orginal/Agressodata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berfre\Desktop\kod\iterbokslut\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berfre\Desktop\kod\iterbokslut\Docs\Spara orginal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="104">
   <si>
     <t>Konto</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Kostnader</t>
   </si>
   <si>
-    <t>Ämnesgemensamt</t>
-  </si>
-  <si>
     <t>Övriga tjänster fr svensk lev - utomstatliga</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Löner doktorander</t>
   </si>
   <si>
-    <t>Lokalkostnader, internt (automatkontering)</t>
-  </si>
-  <si>
     <t>IT- och telefonikostnader,  internt</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Institutionspålägg, lönebas</t>
   </si>
   <si>
-    <t>B4E Fria medel (Exfoliation of graphene, electrodes for supercapacitors)</t>
-  </si>
-  <si>
     <t>DocMASE stip</t>
   </si>
   <si>
@@ -128,45 +119,18 @@
     <t>Bidrag från myndighet (exkl affärsverk)</t>
   </si>
   <si>
-    <t>Porto - utomstatliga</t>
-  </si>
-  <si>
-    <t>Hierarchical 3D structures</t>
-  </si>
-  <si>
     <t>Periodisering, bidrag från övr org. o ideella före</t>
   </si>
   <si>
-    <t>Eco-friendly wood KAW</t>
-  </si>
-  <si>
     <t>Periodisering, bidrag från andra EU-länder</t>
   </si>
   <si>
-    <t>Eco-friendly wood Stora Enso</t>
-  </si>
-  <si>
-    <t>HEALiX</t>
-  </si>
-  <si>
-    <t>Carbon lignin</t>
-  </si>
-  <si>
-    <t>NEWPACK</t>
-  </si>
-  <si>
-    <t>Undervisning</t>
-  </si>
-  <si>
     <t>Löner lärare/forsk/dokt/adm/tekn/ledpers omföring</t>
   </si>
   <si>
     <t>Återstår att fördela, seniorer</t>
   </si>
   <si>
-    <t>Återstår att fördela, doktorander</t>
-  </si>
-  <si>
     <t>TFN forskningsanslag - volym</t>
   </si>
   <si>
@@ -180,6 +144,198 @@
   </si>
   <si>
     <t>TVM, lokaler</t>
+  </si>
+  <si>
+    <t>TFN forskningsanslag -strategiskt</t>
+  </si>
+  <si>
+    <t>Intäkter av utbildning o konferenser - inomstatliga</t>
+  </si>
+  <si>
+    <t>Övriga andra ersättningar (t.ex försäljn av material) - utomstatliga</t>
+  </si>
+  <si>
+    <t>Övriga andra ersättningar, köparen momspliktig i annat EU-land</t>
+  </si>
+  <si>
+    <t>Löner teknisk personal</t>
+  </si>
+  <si>
+    <t>Skattefria traktamenten, Sverige</t>
+  </si>
+  <si>
+    <t>Skattepliktiga traktamenten Sverige, till personal</t>
+  </si>
+  <si>
+    <t>Skattefria traktamenten, utlandet</t>
+  </si>
+  <si>
+    <t>Fria eller subventionerade måltider</t>
+  </si>
+  <si>
+    <t>Terminalglasögon</t>
+  </si>
+  <si>
+    <t>Kurs- och konferensavgifter till utomstatlig arrangör</t>
+  </si>
+  <si>
+    <t>Reparation av hyrda lokaler och byggnader</t>
+  </si>
+  <si>
+    <t>Resor - utomstatliga</t>
+  </si>
+  <si>
+    <t>Hotell och logi - utomstatliga</t>
+  </si>
+  <si>
+    <t>Övriga resekostnader - utomstatliga</t>
+  </si>
+  <si>
+    <t>Representation inkl. ing. moms - utomstatlig</t>
+  </si>
+  <si>
+    <t>Resor - inomstatliga</t>
+  </si>
+  <si>
+    <t>Kontorsmaterial fr svensk leverantör - utomstatliga</t>
+  </si>
+  <si>
+    <t>Övriga varor från leverantör inom EU - utomstatliga</t>
+  </si>
+  <si>
+    <t>Mobil (abonnemang + markeringar) - utomstatliga</t>
+  </si>
+  <si>
+    <t>Operationell leasing övrigt fr svensk lev - utomst</t>
+  </si>
+  <si>
+    <t>Tryckkostnad o kopiering fr svensk lev - utomstatliga</t>
+  </si>
+  <si>
+    <t>Övriga tjänster fr lev inom EU - utomstatliga</t>
+  </si>
+  <si>
+    <t>Interna fördelningar</t>
+  </si>
+  <si>
+    <t>Räntekostnader på leverantörsskulder - utomstatlig</t>
+  </si>
+  <si>
+    <t>Karaktärisering</t>
+  </si>
+  <si>
+    <t>TFN forskningsanslag - strategiska forskningsområden</t>
+  </si>
+  <si>
+    <t>Arvoden lärare/forskare, uppdragstagare</t>
+  </si>
+  <si>
+    <t>Läkemedelsersättning</t>
+  </si>
+  <si>
+    <t>Ersättning sjukvårdskostnader</t>
+  </si>
+  <si>
+    <t>Rehabilitering</t>
+  </si>
+  <si>
+    <t>Översättningsuppdrag fr svensk lev - utomstatliga</t>
+  </si>
+  <si>
+    <t>B4E Strategisk pott 1</t>
+  </si>
+  <si>
+    <t>Bio4E Strat pott II (Supercapasitors)</t>
+  </si>
+  <si>
+    <t>Bio4E Strat pott III (Nanocellulosa)</t>
+  </si>
+  <si>
+    <t>Stipendier forskning - utomstatliga</t>
+  </si>
+  <si>
+    <t>NanoSelect</t>
+  </si>
+  <si>
+    <t>INCOM</t>
+  </si>
+  <si>
+    <t>Utländsk moms varor och tjänster</t>
+  </si>
+  <si>
+    <t>CEREAL (Susfood)</t>
+  </si>
+  <si>
+    <t>EXCEL WP3</t>
+  </si>
+  <si>
+    <t>TFN forskningsanslag - samfin. projekt täckning ej stödb kostn</t>
+  </si>
+  <si>
+    <t>WWSC K Oksman</t>
+  </si>
+  <si>
+    <t>Bilersättningar, skattefria</t>
+  </si>
+  <si>
+    <t>Bilersättningar, skattepliktiga till personal</t>
+  </si>
+  <si>
+    <t>Kempe postdoc I</t>
+  </si>
+  <si>
+    <t>FidiPro (Oulu)</t>
+  </si>
+  <si>
+    <t>Intäkter av utbildning o konferenser - utomstatliga</t>
+  </si>
+  <si>
+    <t>Bidrag från andra EU-länder</t>
+  </si>
+  <si>
+    <t>SNS Finland</t>
+  </si>
+  <si>
+    <t>Varutransporter o frakter fr svensk lev - utomstatliga</t>
+  </si>
+  <si>
+    <t>Erhållna medel från statliga myndigh. inkl affärsv</t>
+  </si>
+  <si>
+    <t>Lämnade bidrag till övr länder o intern.org, konsu</t>
+  </si>
+  <si>
+    <t>Bidrag från privata företag</t>
+  </si>
+  <si>
+    <t>Rörflen Projektkurs</t>
+  </si>
+  <si>
+    <t>SMM Y Aitomäki</t>
+  </si>
+  <si>
+    <t>MobyDig</t>
+  </si>
+  <si>
+    <t>Grundutbildningsersättning - strategiskt</t>
+  </si>
+  <si>
+    <t>Pedagogisk utv YA</t>
+  </si>
+  <si>
+    <t>Grundutbildning</t>
+  </si>
+  <si>
+    <t>TFN forskningsanslag - volym examen</t>
+  </si>
+  <si>
+    <t>TFN forskningsanslag - strategiskt, fördelat</t>
+  </si>
+  <si>
+    <t>TVM10 Trä- och bionanokompositer löner tidsredovisning</t>
+  </si>
+  <si>
+    <t>Löner administrativ personal</t>
   </si>
 </sst>
 </file>
@@ -527,22 +683,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -573,10 +729,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>5691</v>
+        <v>3064</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
         <v>22500</v>
@@ -590,16 +746,19 @@
       <c r="F2" s="1">
         <v>97</v>
       </c>
+      <c r="G2" s="1">
+        <v>97</v>
+      </c>
       <c r="H2" s="1">
-        <v>296</v>
+        <v>-98635</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5721</v>
+        <v>3121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1">
         <v>22500</v>
@@ -611,18 +770,21 @@
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>97</v>
+        <v>1050</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1050</v>
       </c>
       <c r="H3" s="1">
-        <v>1970</v>
+        <v>-4020</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>57961</v>
+        <v>3492</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>22500</v>
@@ -634,18 +796,21 @@
         <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>4301</v>
+        <v>4400</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4400</v>
       </c>
       <c r="H4" s="1">
-        <v>18628.099999999999</v>
+        <v>-9964.59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6913</v>
+        <v>3493</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
         <v>22500</v>
@@ -656,16 +821,22 @@
       <c r="E5" s="1">
         <v>30</v>
       </c>
+      <c r="F5" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4500</v>
+      </c>
       <c r="H5" s="1">
-        <v>93733.5</v>
+        <v>-7740</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>22500</v>
@@ -674,106 +845,136 @@
         <v>9</v>
       </c>
       <c r="H6" s="1">
-        <v>114627.6</v>
+        <v>-120359.59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="1">
         <v>22500</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3300</v>
+      </c>
       <c r="H7" s="1">
-        <v>114627.6</v>
+        <v>210714.67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5691</v>
+        <v>4014</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>225110</v>
+        <v>22500</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H8" s="1">
-        <v>5620.9</v>
+        <v>88575.92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>57951</v>
+        <v>4321</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
-        <v>225110</v>
+        <v>22500</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H9" s="1">
-        <v>500</v>
+        <v>1467.2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
+      <c r="A10" s="1">
+        <v>4322</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
-        <v>225110</v>
+        <v>22500</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3300</v>
       </c>
       <c r="H10" s="1">
-        <v>6120.9</v>
+        <v>2662.22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" s="1">
-        <v>225110</v>
+        <v>22500</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3300</v>
       </c>
       <c r="H11" s="1">
-        <v>6120.9</v>
+        <v>5895.15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4011</v>
+        <v>4382</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>30</v>
@@ -782,113 +983,113 @@
         <v>3300</v>
       </c>
       <c r="H12" s="1">
-        <v>441391.09</v>
+        <v>809.3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4012</v>
+        <v>4712</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>30</v>
       </c>
       <c r="F13" s="1">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H13" s="1">
-        <v>141835.32</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>50121</v>
+        <v>4821</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
       </c>
       <c r="F14" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H14" s="1">
-        <v>87483.96</v>
+        <v>20151.169999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>5691</v>
+        <v>4821</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
         <v>30</v>
       </c>
       <c r="F15" s="1">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="H15" s="1">
-        <v>1330.09</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5721</v>
+        <v>4821</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>97</v>
+        <v>4500</v>
       </c>
       <c r="H16" s="1">
-        <v>510</v>
+        <v>27085.38</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>57213</v>
+        <v>5012</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1">
         <v>30</v>
@@ -897,192 +1098,228 @@
         <v>97</v>
       </c>
       <c r="H17" s="1">
-        <v>19829.7</v>
+        <v>74822.66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>5765</v>
+        <v>5081</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1">
         <v>30</v>
       </c>
       <c r="F18" s="1">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="1">
-        <v>1330</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>57961</v>
+        <v>5511</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <v>30</v>
       </c>
       <c r="F19" s="1">
-        <v>4301</v>
+        <v>3100</v>
       </c>
       <c r="H19" s="1">
-        <v>35012.79</v>
+        <v>97938.16</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>57990</v>
+        <v>5511</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
         <v>30</v>
       </c>
       <c r="F20" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H20" s="1">
-        <v>163303.39000000001</v>
+        <v>4566.8900000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>57991</v>
+        <v>5513</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
         <v>30</v>
       </c>
       <c r="F21" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H21" s="1">
-        <v>75819.429999999993</v>
+        <v>30841.55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
+      <c r="A22" s="1">
+        <v>5513</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>30</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3300</v>
       </c>
       <c r="H22" s="1">
-        <v>967845.77</v>
+        <v>1691.96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="1">
-        <v>22517</v>
+        <v>22500</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3100</v>
       </c>
       <c r="H23" s="1">
-        <v>967845.77</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>57951</v>
+        <v>5518</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
-        <v>225175</v>
+        <v>22500</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E24" s="1">
         <v>30</v>
       </c>
       <c r="F24" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H24" s="1">
-        <v>4050</v>
+        <v>1085.3399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
+      <c r="A25" s="1">
+        <v>5522</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
-        <v>225175</v>
+        <v>22500</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3100</v>
       </c>
       <c r="H25" s="1">
-        <v>4050</v>
+        <v>6058.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>5541</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="C26" s="1">
-        <v>225175</v>
+        <v>22500</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1050</v>
       </c>
       <c r="H26" s="1">
-        <v>4050</v>
+        <v>945</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>5721</v>
+        <v>5631</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1">
-        <v>22535</v>
+        <v>22500</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1">
         <v>30</v>
@@ -1091,143 +1328,182 @@
         <v>97</v>
       </c>
       <c r="H27" s="1">
-        <v>200</v>
+        <v>939.2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>13</v>
+      <c r="A28" s="1">
+        <v>5691</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
-        <v>22535</v>
+        <v>22500</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3100</v>
       </c>
       <c r="H28" s="1">
-        <v>200</v>
+        <v>25198.42</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>56911</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="1">
-        <v>22535</v>
+        <v>22500</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4300</v>
       </c>
       <c r="H29" s="1">
-        <v>200</v>
+        <v>1433.46</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3519</v>
+        <v>5721</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1">
-        <v>22537</v>
+        <v>22500</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1">
         <v>30</v>
       </c>
       <c r="F30" s="1">
-        <v>1267</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1267</v>
+        <v>97</v>
       </c>
       <c r="H30" s="1">
-        <v>-308547.71999999997</v>
+        <v>16085</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" s="1">
+        <v>57213</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>22537</v>
+        <v>22500</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>97</v>
       </c>
       <c r="H31" s="1">
-        <v>-308547.71999999997</v>
+        <v>9577.31</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5691</v>
+        <v>5752</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1">
-        <v>22537</v>
+        <v>22500</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1">
         <v>30</v>
       </c>
       <c r="F32" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H32" s="1">
+        <v>826.47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>5762</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>22500</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1">
         <v>3100</v>
       </c>
-      <c r="H32" s="1">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1">
-        <v>22537</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H33" s="1">
-        <v>1260</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5765</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="1">
-        <v>22537</v>
+        <v>22500</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1">
+        <v>97</v>
       </c>
       <c r="H34" s="1">
-        <v>-307287.71999999997</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>306888</v>
+        <v>57911</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C35" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <v>30</v>
@@ -1235,140 +1511,137 @@
       <c r="F35" s="1">
         <v>97</v>
       </c>
-      <c r="G35" s="1">
-        <v>97</v>
-      </c>
       <c r="H35" s="1">
-        <v>81533.990000000005</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3511</v>
+        <v>57951</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E36" s="1">
         <v>30</v>
       </c>
       <c r="F36" s="1">
-        <v>1158</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1269</v>
+        <v>3100</v>
       </c>
       <c r="H36" s="1">
-        <v>-2029000</v>
+        <v>11614.75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3519</v>
+        <v>57951</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1">
         <v>30</v>
       </c>
       <c r="F37" s="1">
-        <v>1113</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1269</v>
+        <v>97</v>
       </c>
       <c r="H37" s="1">
-        <v>1549145.82</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>29</v>
+      <c r="A38" s="1">
+        <v>579511</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4300</v>
       </c>
       <c r="H38" s="1">
-        <v>-398320.19</v>
+        <v>19089.8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4011</v>
+        <v>57961</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1">
         <v>30</v>
       </c>
       <c r="F39" s="1">
-        <v>3300</v>
+        <v>4300</v>
       </c>
       <c r="H39" s="1">
-        <v>35066.85</v>
+        <v>5596.45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4012</v>
+        <v>57990</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
       </c>
       <c r="F40" s="1">
-        <v>3300</v>
+        <v>97</v>
       </c>
       <c r="H40" s="1">
-        <v>163137.48000000001</v>
+        <v>71829.759999999995</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>50121</v>
+        <v>57991</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1">
         <v>30</v>
@@ -1377,21 +1650,21 @@
         <v>97</v>
       </c>
       <c r="H41" s="1">
-        <v>29730.66</v>
+        <v>38907.78</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5721</v>
+        <v>57993</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1">
         <v>30</v>
@@ -1400,210 +1673,183 @@
         <v>97</v>
       </c>
       <c r="H42" s="1">
-        <v>690</v>
+        <v>130326.62</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>57213</v>
+        <v>5922</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C43" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1">
         <v>30</v>
       </c>
       <c r="F43" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H43" s="1">
-        <v>6738.96</v>
+        <v>8.9600000000000009</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5741</v>
+        <v>6913</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1">
         <v>30</v>
       </c>
-      <c r="F44" s="1">
-        <v>2000</v>
-      </c>
       <c r="H44" s="1">
-        <v>61.9</v>
+        <v>362738.09</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>57990</v>
+      <c r="A45" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="1">
-        <v>30</v>
-      </c>
-      <c r="F45" s="1">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1">
-        <v>55497.21</v>
+        <v>1287405.1399999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>57991</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C46" s="1">
-        <v>22540</v>
+        <v>22500</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="1">
-        <v>30</v>
-      </c>
-      <c r="F46" s="1">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1">
-        <v>25766.55</v>
+        <v>1167045.55</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>13</v>
+      <c r="A47" s="1">
+        <v>3064</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1">
-        <v>22540</v>
+        <v>22502</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1">
+        <v>97</v>
+      </c>
+      <c r="G47" s="1">
+        <v>97</v>
       </c>
       <c r="H47" s="1">
-        <v>316689.61</v>
+        <v>-80485</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C48" s="1">
-        <v>22540</v>
+        <v>22502</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="H48" s="1">
-        <v>-81630.58</v>
+        <v>-80485</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4011</v>
+        <v>6913</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1">
-        <v>22543</v>
+        <v>22502</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1">
         <v>30</v>
       </c>
-      <c r="F49" s="1">
-        <v>3300</v>
-      </c>
       <c r="H49" s="1">
-        <v>163286.31</v>
+        <v>212463</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>50121</v>
+      <c r="A50" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1">
-        <v>22543</v>
+        <v>22502</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="1">
-        <v>30</v>
-      </c>
-      <c r="F50" s="1">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H50" s="1">
-        <v>24492.959999999999</v>
+        <v>212463</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>5691</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C51" s="1">
-        <v>22543</v>
+        <v>22502</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="1">
-        <v>30</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3100</v>
+        <v>65</v>
       </c>
       <c r="H51" s="1">
-        <v>2674</v>
+        <v>131978</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>57213</v>
+        <v>30641</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1">
-        <v>22543</v>
+        <v>22517</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
         <v>30</v>
@@ -1611,139 +1857,157 @@
       <c r="F52" s="1">
         <v>97</v>
       </c>
+      <c r="G52" s="1">
+        <v>97</v>
+      </c>
       <c r="H52" s="1">
-        <v>5551.74</v>
+        <v>-2750821.2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>57990</v>
+      <c r="A53" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1">
-        <v>22543</v>
+        <v>22517</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="1">
-        <v>30</v>
-      </c>
-      <c r="F53" s="1">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H53" s="1">
-        <v>45720.18</v>
+        <v>-2750821.2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>57991</v>
+        <v>4011</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
-        <v>22543</v>
+        <v>22517</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E54" s="1">
         <v>30</v>
       </c>
       <c r="F54" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H54" s="1">
-        <v>21227.22</v>
+        <v>313101.78999999998</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>13</v>
+      <c r="A55" s="1">
+        <v>4012</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>22543</v>
+        <v>22517</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>30</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3300</v>
       </c>
       <c r="H55" s="1">
-        <v>262952.40999999997</v>
+        <v>1045263.25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>4014</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C56" s="1">
-        <v>22543</v>
+        <v>22517</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>30</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3300</v>
       </c>
       <c r="H56" s="1">
-        <v>262952.40999999997</v>
+        <v>90157.87</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3729</v>
+        <v>4041</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C57" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E57" s="1">
         <v>30</v>
       </c>
       <c r="F57" s="1">
-        <v>2108</v>
-      </c>
-      <c r="G57" s="1">
-        <v>2108</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="1">
-        <v>1026792.4</v>
+        <v>44996.800000000003</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>29</v>
+      <c r="A58" s="1">
+        <v>4321</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3300</v>
       </c>
       <c r="H58" s="1">
-        <v>1026792.4</v>
+        <v>1102.2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>4012</v>
+        <v>4322</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1">
         <v>30</v>
@@ -1752,230 +2016,251 @@
         <v>3300</v>
       </c>
       <c r="H59" s="1">
-        <v>138747</v>
+        <v>1106.69</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>50121</v>
+        <v>4323</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1">
         <v>30</v>
       </c>
       <c r="F60" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H60" s="1">
-        <v>20812.05</v>
+        <v>-747.25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>5691</v>
+        <v>4382</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E61" s="1">
         <v>30</v>
       </c>
       <c r="F61" s="1">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="H61" s="1">
-        <v>2403.44</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>57213</v>
+        <v>4393</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1">
         <v>30</v>
       </c>
       <c r="F62" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H62" s="1">
-        <v>4717.3900000000003</v>
+        <v>2472.39</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>5765</v>
+        <v>4394</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="C63" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E63" s="1">
         <v>30</v>
       </c>
       <c r="F63" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H63" s="1">
-        <v>4025</v>
+        <v>1223.8499999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>57990</v>
+        <v>4714</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E64" s="1">
         <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H64" s="1">
-        <v>38849.160000000003</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>57991</v>
+        <v>4821</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E65" s="1">
         <v>30</v>
       </c>
       <c r="F65" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H65" s="1">
-        <v>18037.11</v>
+        <v>6873.9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
+      <c r="A66" s="1">
+        <v>5012</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C66" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1">
+        <v>97</v>
       </c>
       <c r="H66" s="1">
-        <v>227591.15</v>
+        <v>374684.99</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C67" s="1">
-        <v>225441</v>
+        <v>22517</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>30</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3100</v>
       </c>
       <c r="H67" s="1">
-        <v>1254383.55</v>
+        <v>31769.25</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>3749</v>
+        <v>5511</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C68" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1">
         <v>30</v>
       </c>
       <c r="F68" s="1">
-        <v>4300</v>
-      </c>
-      <c r="G68" s="1">
-        <v>4300</v>
+        <v>3300</v>
       </c>
       <c r="H68" s="1">
-        <v>-79270.39</v>
+        <v>798.36</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
+      <c r="A69" s="1">
+        <v>5513</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C69" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="E69" s="1">
+        <v>30</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3100</v>
       </c>
       <c r="H69" s="1">
-        <v>-79270.39</v>
+        <v>13953.88</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>4012</v>
+        <v>5513</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1">
         <v>30</v>
@@ -1984,113 +2269,113 @@
         <v>3300</v>
       </c>
       <c r="H70" s="1">
-        <v>143082.31</v>
+        <v>558</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>50121</v>
+        <v>5518</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1">
         <v>30</v>
       </c>
       <c r="F71" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H71" s="1">
-        <v>21462.35</v>
+        <v>3439.46</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>57213</v>
+        <v>5691</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E72" s="1">
         <v>30</v>
       </c>
       <c r="F72" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H72" s="1">
-        <v>4864.8</v>
+        <v>2533.13</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>57951</v>
+        <v>5691</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C73" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1">
         <v>30</v>
       </c>
       <c r="F73" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H73" s="1">
-        <v>385</v>
+        <v>2124.37</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>57990</v>
+        <v>56911</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C74" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E74" s="1">
         <v>30</v>
       </c>
       <c r="F74" s="1">
-        <v>97</v>
+        <v>4300</v>
       </c>
       <c r="H74" s="1">
-        <v>40063.040000000001</v>
+        <v>3891.43</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>57991</v>
+        <v>5721</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E75" s="1">
         <v>30</v>
@@ -2099,138 +2384,159 @@
         <v>97</v>
       </c>
       <c r="H75" s="1">
-        <v>18600.71</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>13</v>
+      <c r="A76" s="1">
+        <v>57213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="E76" s="1">
+        <v>30</v>
+      </c>
+      <c r="F76" s="1">
+        <v>97</v>
       </c>
       <c r="H76" s="1">
-        <v>228458.21</v>
+        <v>47792.63</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>5752</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C77" s="1">
-        <v>225442</v>
+        <v>22517</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="E77" s="1">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2004</v>
       </c>
       <c r="H77" s="1">
-        <v>149187.82</v>
+        <v>418.84</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>3519</v>
+        <v>5765</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C78" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E78" s="1">
         <v>30</v>
       </c>
       <c r="F78" s="1">
-        <v>1131</v>
-      </c>
-      <c r="G78" s="1">
-        <v>2100</v>
+        <v>97</v>
       </c>
       <c r="H78" s="1">
-        <v>557784.31999999995</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>29</v>
+      <c r="A79" s="1">
+        <v>57911</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C79" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="E79" s="1">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1">
+        <v>97</v>
       </c>
       <c r="H79" s="1">
-        <v>557784.31999999995</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>4011</v>
+        <v>57941</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="1">
+        <v>22517</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C80" s="1">
-        <v>22547</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E80" s="1">
         <v>30</v>
       </c>
       <c r="F80" s="1">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H80" s="1">
-        <v>115940.88</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>50121</v>
+        <v>57951</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C81" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1">
         <v>30</v>
       </c>
       <c r="F81" s="1">
-        <v>97</v>
+        <v>3100</v>
       </c>
       <c r="H81" s="1">
-        <v>17391.12</v>
+        <v>11778.62</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>57213</v>
+        <v>57951</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C82" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E82" s="1">
         <v>30</v>
@@ -2239,7 +2545,7 @@
         <v>97</v>
       </c>
       <c r="H82" s="1">
-        <v>3942</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,13 +2553,13 @@
         <v>57990</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1">
         <v>30</v>
@@ -2262,7 +2568,7 @@
         <v>97</v>
       </c>
       <c r="H83" s="1">
-        <v>32463.45</v>
+        <v>358444.71</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2270,13 +2576,13 @@
         <v>57991</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1">
         <v>30</v>
@@ -2285,115 +2591,115 @@
         <v>97</v>
       </c>
       <c r="H84" s="1">
-        <v>15072.3</v>
+        <v>194157.57</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
+      <c r="A85" s="1">
+        <v>57993</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C85" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="E85" s="1">
+        <v>30</v>
+      </c>
+      <c r="F85" s="1">
+        <v>97</v>
       </c>
       <c r="H85" s="1">
-        <v>184809.75</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>5922</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C86" s="1">
-        <v>22547</v>
+        <v>22517</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="E86" s="1">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3100</v>
       </c>
       <c r="H86" s="1">
-        <v>742594.07</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>3511</v>
+        <v>6913</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C87" s="1">
-        <v>225501</v>
+        <v>22517</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1">
         <v>30</v>
       </c>
-      <c r="F87" s="1">
-        <v>1267</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1267</v>
-      </c>
       <c r="H87" s="1">
-        <v>-100014.87</v>
+        <v>9095</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C88" s="1">
-        <v>225501</v>
+        <v>22517</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H88" s="1">
-        <v>-100014.87</v>
+        <v>2605611.7200000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>4011</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1">
+        <v>22517</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="1">
-        <v>225501</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E89" s="1">
-        <v>30</v>
-      </c>
-      <c r="F89" s="1">
-        <v>3300</v>
-      </c>
       <c r="H89" s="1">
-        <v>70133.7</v>
+        <v>-145209.48000000001</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>4012</v>
+        <v>4041</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C90" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E90" s="1">
         <v>30</v>
@@ -2402,21 +2708,21 @@
         <v>3300</v>
       </c>
       <c r="H90" s="1">
-        <v>164785.38</v>
+        <v>33426.519999999997</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>50121</v>
+        <v>5012</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C91" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E91" s="1">
         <v>30</v>
@@ -2425,7 +2731,7 @@
         <v>97</v>
       </c>
       <c r="H91" s="1">
-        <v>35237.85</v>
+        <v>8356.6299999999992</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2433,13 +2739,13 @@
         <v>57213</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C92" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E92" s="1">
         <v>30</v>
@@ -2448,7 +2754,7 @@
         <v>97</v>
       </c>
       <c r="H92" s="1">
-        <v>7987.26</v>
+        <v>1069.6500000000001</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,13 +2762,13 @@
         <v>57990</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C93" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E93" s="1">
         <v>30</v>
@@ -2471,7 +2777,7 @@
         <v>97</v>
       </c>
       <c r="H93" s="1">
-        <v>65777.34</v>
+        <v>8022.36</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,13 +2785,13 @@
         <v>57991</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C94" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E94" s="1">
         <v>30</v>
@@ -2494,7 +2800,7 @@
         <v>97</v>
       </c>
       <c r="H94" s="1">
-        <v>30539.49</v>
+        <v>4345.45</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2505,138 +2811,150 @@
         <v>14</v>
       </c>
       <c r="C95" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H95" s="1">
-        <v>374461.02</v>
+        <v>55220.61</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="1">
-        <v>225501</v>
+        <v>225171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="H96" s="1">
-        <v>274446.15000000002</v>
+        <v>55220.61</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>3749</v>
+        <v>30641</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C97" s="1">
-        <v>225503</v>
+        <v>225172</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E97" s="1">
         <v>30</v>
       </c>
       <c r="F97" s="1">
-        <v>4500</v>
+        <v>97</v>
       </c>
       <c r="G97" s="1">
-        <v>4208</v>
+        <v>97</v>
       </c>
       <c r="H97" s="1">
-        <v>8496.27</v>
+        <v>-405000</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C98" s="1">
-        <v>225503</v>
+        <v>225172</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H98" s="1">
-        <v>8496.27</v>
+        <v>-405000</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C99" s="1">
-        <v>225503</v>
+        <v>225172</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
+      </c>
+      <c r="E99" s="1">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3300</v>
       </c>
       <c r="H99" s="1">
-        <v>8496.27</v>
+        <v>621960.93000000005</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>4011</v>
+        <v>5012</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C100" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E100" s="1">
         <v>30</v>
       </c>
       <c r="F100" s="1">
-        <v>3300</v>
+        <v>97</v>
       </c>
       <c r="H100" s="1">
-        <v>92679.33</v>
+        <v>155490.25</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>4012</v>
+        <v>5511</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C101" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E101" s="1">
         <v>30</v>
       </c>
       <c r="F101" s="1">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="H101" s="1">
-        <v>1647.9</v>
+        <v>4203.03</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>4030</v>
+        <v>5721</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C102" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E102" s="1">
         <v>30</v>
@@ -2645,21 +2963,21 @@
         <v>97</v>
       </c>
       <c r="H102" s="1">
-        <v>-286518</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>50121</v>
+        <v>57213</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E103" s="1">
         <v>30</v>
@@ -2668,21 +2986,21 @@
         <v>97</v>
       </c>
       <c r="H103" s="1">
-        <v>14149.08</v>
+        <v>19902.73</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>57213</v>
+        <v>5765</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E104" s="1">
         <v>30</v>
@@ -2691,7 +3009,7 @@
         <v>97</v>
       </c>
       <c r="H104" s="1">
-        <v>3207.12</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,13 +3017,13 @@
         <v>57990</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C105" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E105" s="1">
         <v>30</v>
@@ -2714,7 +3032,7 @@
         <v>97</v>
       </c>
       <c r="H105" s="1">
-        <v>26411.61</v>
+        <v>149270.62</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,13 +3040,13 @@
         <v>57991</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C106" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E106" s="1">
         <v>30</v>
@@ -2737,72 +3055,72 @@
         <v>97</v>
       </c>
       <c r="H106" s="1">
-        <v>12262.53</v>
+        <v>80854.899999999994</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="1">
+        <v>57993</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="1">
+        <v>225172</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="1">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1">
+        <v>97</v>
+      </c>
+      <c r="H107" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="1">
-        <v>225890</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H107" s="1">
-        <v>-136160.43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="1">
-        <v>225890</v>
+        <v>225172</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H108" s="1">
-        <v>-136160.43</v>
+        <v>1039618.46</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>4011</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C109" s="1">
-        <v>225898</v>
+        <v>225172</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E109" s="1">
-        <v>30</v>
-      </c>
-      <c r="F109" s="1">
-        <v>3300</v>
+        <v>73</v>
       </c>
       <c r="H109" s="1">
-        <v>35066.85</v>
+        <v>634618.46</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>50121</v>
+        <v>30641</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C110" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E110" s="1">
         <v>30</v>
@@ -2810,68 +3128,65 @@
       <c r="F110" s="1">
         <v>97</v>
       </c>
+      <c r="G110" s="1">
+        <v>97</v>
+      </c>
       <c r="H110" s="1">
-        <v>5260.02</v>
+        <v>-495000</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>57213</v>
+      <c r="A111" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C111" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="1">
-        <v>30</v>
-      </c>
-      <c r="F111" s="1">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H111" s="1">
-        <v>1192.26</v>
+        <v>-495000</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>57990</v>
+        <v>4011</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E112" s="1">
         <v>30</v>
       </c>
       <c r="F112" s="1">
-        <v>97</v>
+        <v>3300</v>
       </c>
       <c r="H112" s="1">
-        <v>9818.73</v>
+        <v>571333.18999999994</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>57991</v>
+        <v>5012</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C113" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E113" s="1">
         <v>30</v>
@@ -2880,95 +3195,113 @@
         <v>97</v>
       </c>
       <c r="H113" s="1">
-        <v>4558.68</v>
+        <v>142833.31</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>13</v>
+      <c r="A114" s="1">
+        <v>5691</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C114" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="E114" s="1">
+        <v>30</v>
+      </c>
+      <c r="F114" s="1">
+        <v>3100</v>
       </c>
       <c r="H114" s="1">
-        <v>55896.54</v>
+        <v>28208.799999999999</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>5713</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C115" s="1">
-        <v>225898</v>
+        <v>225173</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
+      </c>
+      <c r="E115" s="1">
+        <v>30</v>
+      </c>
+      <c r="F115" s="1">
+        <v>3300</v>
       </c>
       <c r="H115" s="1">
-        <v>55896.54</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>4012</v>
+        <v>57213</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="1">
-        <v>225899</v>
+        <v>225173</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E116" s="1">
         <v>30</v>
       </c>
       <c r="F116" s="1">
-        <v>3300</v>
+        <v>97</v>
       </c>
       <c r="H116" s="1">
-        <v>109899.9</v>
+        <v>18282.650000000001</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>50121</v>
+        <v>5752</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C117" s="1">
-        <v>225899</v>
+        <v>225173</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E117" s="1">
         <v>30</v>
       </c>
       <c r="F117" s="1">
-        <v>97</v>
+        <v>2004</v>
       </c>
       <c r="H117" s="1">
-        <v>16485</v>
+        <v>399.23</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>57213</v>
+        <v>5765</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" s="1">
-        <v>225899</v>
+        <v>225173</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E118" s="1">
         <v>30</v>
@@ -2977,21 +3310,21 @@
         <v>97</v>
       </c>
       <c r="H118" s="1">
-        <v>3736.59</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>57990</v>
+        <v>57951</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C119" s="1">
-        <v>225899</v>
+        <v>225173</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E119" s="1">
         <v>30</v>
@@ -3000,124 +3333,118 @@
         <v>97</v>
       </c>
       <c r="H119" s="1">
-        <v>30771.97</v>
+        <v>8558</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="1">
+        <v>225173</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="1">
+        <v>30</v>
+      </c>
+      <c r="F120" s="1">
+        <v>97</v>
+      </c>
+      <c r="H120" s="1">
+        <v>137119.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>57991</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" s="1">
-        <v>225899</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="1">
-        <v>30</v>
-      </c>
-      <c r="F120" s="1">
-        <v>97</v>
-      </c>
-      <c r="H120" s="1">
-        <v>14286.99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="1">
+        <v>225173</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" s="1">
+        <v>30</v>
+      </c>
+      <c r="F121" s="1">
+        <v>97</v>
+      </c>
+      <c r="H121" s="1">
+        <v>74273.31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>57993</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="1">
+        <v>225173</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E122" s="1">
+        <v>30</v>
+      </c>
+      <c r="F122" s="1">
+        <v>97</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C121" s="1">
-        <v>225899</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H121" s="1">
-        <v>175180.45</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C122" s="1">
-        <v>225899</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H122" s="1">
-        <v>175180.45</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>3062</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C123" s="1">
-        <v>225940</v>
+        <v>225173</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E123" s="1">
-        <v>30</v>
-      </c>
-      <c r="F123" s="1">
-        <v>97</v>
-      </c>
-      <c r="G123" s="1">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H123" s="1">
-        <v>-202500</v>
+        <v>1044770.45</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>30622</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C124" s="1">
-        <v>225940</v>
+        <v>225173</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E124" s="1">
-        <v>30</v>
-      </c>
-      <c r="F124" s="1">
-        <v>97</v>
-      </c>
-      <c r="G124" s="1">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H124" s="1">
-        <v>-534000</v>
+        <v>549770.44999999995</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>306888</v>
+        <v>5721</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C125" s="1">
-        <v>225940</v>
+        <v>22519</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E125" s="1">
         <v>30</v>
@@ -3125,53 +3452,50 @@
       <c r="F125" s="1">
         <v>97</v>
       </c>
-      <c r="G125" s="1">
-        <v>97</v>
-      </c>
       <c r="H125" s="1">
-        <v>-81533.990000000005</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1">
-        <v>225940</v>
+        <v>22519</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H126" s="1">
-        <v>-818033.99</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C127" s="1">
-        <v>225940</v>
+        <v>22519</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="H127" s="1">
-        <v>-818033.99</v>
+        <v>420</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>5012</v>
+        <v>306888</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C128" s="1">
-        <v>225952</v>
+        <v>22523</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E128" s="1">
         <v>30</v>
@@ -3179,64 +3503,4539 @@
       <c r="F128" s="1">
         <v>97</v>
       </c>
+      <c r="G128" s="1">
+        <v>97</v>
+      </c>
       <c r="H128" s="1">
-        <v>282118.98</v>
+        <v>-530883.34</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>50121</v>
+        <v>3749</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1">
-        <v>225952</v>
+        <v>22523</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E129" s="1">
         <v>30</v>
       </c>
       <c r="F129" s="1">
-        <v>97</v>
+        <v>4500</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4201</v>
       </c>
       <c r="H129" s="1">
-        <v>-272505.05</v>
+        <v>-717722.67</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" s="1">
+        <v>-1248606.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="1">
+        <v>30</v>
+      </c>
+      <c r="F131" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H131" s="1">
+        <v>390145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="1">
+        <v>30</v>
+      </c>
+      <c r="F132" s="1">
+        <v>97</v>
+      </c>
+      <c r="H132" s="1">
+        <v>60204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" s="1">
+        <v>30</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H133" s="1">
+        <v>200930</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" s="1">
+        <v>30</v>
+      </c>
+      <c r="F134" s="1">
+        <v>97</v>
+      </c>
+      <c r="H134" s="1">
+        <v>25311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>4322</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E135" s="1">
+        <v>30</v>
+      </c>
+      <c r="F135" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H135" s="1">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="1">
+        <v>30</v>
+      </c>
+      <c r="F136" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H136" s="1">
+        <v>5157.1499999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>4382</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C137" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E137" s="1">
+        <v>30</v>
+      </c>
+      <c r="F137" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H137" s="1">
+        <v>566.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>4821</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E138" s="1">
+        <v>30</v>
+      </c>
+      <c r="F138" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H138" s="1">
+        <v>2451.13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>4821</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C139" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="1">
+        <v>30</v>
+      </c>
+      <c r="F139" s="1">
+        <v>4300</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3269.01</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" s="1">
+        <v>30</v>
+      </c>
+      <c r="F140" s="1">
+        <v>97</v>
+      </c>
+      <c r="H140" s="1">
+        <v>169147.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E141" s="1">
+        <v>30</v>
+      </c>
+      <c r="F141" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H141" s="1">
+        <v>40945.449999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C142" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E142" s="1">
+        <v>30</v>
+      </c>
+      <c r="F142" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1149.69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E143" s="1">
+        <v>30</v>
+      </c>
+      <c r="F143" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H143" s="1">
+        <v>5441.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" s="1">
+        <v>30</v>
+      </c>
+      <c r="F144" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H144" s="1">
+        <v>8247.58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E145" s="1">
+        <v>30</v>
+      </c>
+      <c r="F145" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H145" s="1">
+        <v>688.15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="1">
+        <v>30</v>
+      </c>
+      <c r="F146" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H146" s="1">
+        <v>2867.69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" s="1">
+        <v>30</v>
+      </c>
+      <c r="F147" s="1">
+        <v>97</v>
+      </c>
+      <c r="H147" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148" s="1">
+        <v>30</v>
+      </c>
+      <c r="F148" s="1">
+        <v>97</v>
+      </c>
+      <c r="H148" s="1">
+        <v>21650.880000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>57951</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" s="1">
+        <v>30</v>
+      </c>
+      <c r="F149" s="1">
+        <v>97</v>
+      </c>
+      <c r="H149" s="1">
+        <v>52407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>579511</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="1">
+        <v>30</v>
+      </c>
+      <c r="F150" s="1">
+        <v>4300</v>
+      </c>
+      <c r="H150" s="1">
+        <v>3269.01</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E151" s="1">
+        <v>30</v>
+      </c>
+      <c r="F151" s="1">
+        <v>97</v>
+      </c>
+      <c r="H151" s="1">
+        <v>162381.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E152" s="1">
+        <v>30</v>
+      </c>
+      <c r="F152" s="1">
+        <v>97</v>
+      </c>
+      <c r="H152" s="1">
+        <v>87956.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>5996</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" s="1">
+        <v>30</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H153" s="1">
+        <v>412.02</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>6913</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" s="1">
+        <v>30</v>
+      </c>
+      <c r="H154" s="1">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C155" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1248606.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
+        <v>22523</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="1">
+        <v>22525</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E157" s="1">
+        <v>30</v>
+      </c>
+      <c r="F157" s="1">
+        <v>97</v>
+      </c>
+      <c r="H157" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="1">
+        <v>22525</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H158" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
+        <v>22525</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="1">
+        <v>22526</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E160" s="1">
+        <v>30</v>
+      </c>
+      <c r="F160" s="1">
+        <v>97</v>
+      </c>
+      <c r="H160" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="1">
+        <v>22526</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H161" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
+        <v>22526</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H162" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>306889</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C163" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E163" s="1">
+        <v>30</v>
+      </c>
+      <c r="F163" s="1">
+        <v>97</v>
+      </c>
+      <c r="G163" s="1">
+        <v>97</v>
+      </c>
+      <c r="H163" s="1">
+        <v>-248419.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E164" s="1">
+        <v>30</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1050</v>
+      </c>
+      <c r="G164" s="1">
+        <v>2108</v>
+      </c>
+      <c r="H164" s="1">
+        <v>-658621</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E165" s="1">
+        <v>30</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1050</v>
+      </c>
+      <c r="G165" s="1">
+        <v>2108</v>
+      </c>
+      <c r="H165" s="1">
+        <v>-56665.47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H166" s="1">
+        <v>-963705.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" s="1">
+        <v>30</v>
+      </c>
+      <c r="F167" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H167" s="1">
+        <v>557945.76</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>4321</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E168" s="1">
+        <v>30</v>
+      </c>
+      <c r="F168" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H168" s="1">
+        <v>492.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>4322</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" s="1">
+        <v>30</v>
+      </c>
+      <c r="F169" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1108.96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C170" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+      <c r="F170" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H170" s="1">
+        <v>2237.9499999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>4331</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E171" s="1">
+        <v>30</v>
+      </c>
+      <c r="F171" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H171" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>4332</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E172" s="1">
+        <v>30</v>
+      </c>
+      <c r="F172" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H172" s="1">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>4382</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E173" s="1">
+        <v>30</v>
+      </c>
+      <c r="F173" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H173" s="1">
+        <v>499.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>4821</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E174" s="1">
+        <v>30</v>
+      </c>
+      <c r="F174" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H174" s="1">
+        <v>2336.5700000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E175" s="1">
+        <v>30</v>
+      </c>
+      <c r="F175" s="1">
+        <v>97</v>
+      </c>
+      <c r="H175" s="1">
+        <v>139486.45000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E176" s="1">
+        <v>30</v>
+      </c>
+      <c r="F176" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H176" s="1">
+        <v>20440</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E177" s="1">
+        <v>30</v>
+      </c>
+      <c r="F177" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H177" s="1">
+        <v>1293.07</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E178" s="1">
+        <v>30</v>
+      </c>
+      <c r="F178" s="1">
+        <v>97</v>
+      </c>
+      <c r="H178" s="1">
+        <v>-6336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C179" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" s="1">
+        <v>30</v>
+      </c>
+      <c r="F179" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H179" s="1">
+        <v>5118.43</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E180" s="1">
+        <v>30</v>
+      </c>
+      <c r="F180" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H180" s="1">
+        <v>48.64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E181" s="1">
+        <v>30</v>
+      </c>
+      <c r="F181" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H181" s="1">
+        <v>2979.72</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E182" s="1">
+        <v>30</v>
+      </c>
+      <c r="F182" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H182" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E183" s="1">
+        <v>30</v>
+      </c>
+      <c r="F183" s="1">
+        <v>97</v>
+      </c>
+      <c r="H183" s="1">
+        <v>17854.259999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>5765</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E184" s="1">
+        <v>30</v>
+      </c>
+      <c r="F184" s="1">
+        <v>97</v>
+      </c>
+      <c r="H184" s="1">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>57911</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E185" s="1">
+        <v>30</v>
+      </c>
+      <c r="F185" s="1">
+        <v>97</v>
+      </c>
+      <c r="H185" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>57951</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E186" s="1">
+        <v>30</v>
+      </c>
+      <c r="F186" s="1">
+        <v>97</v>
+      </c>
+      <c r="H186" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E187" s="1">
+        <v>30</v>
+      </c>
+      <c r="F187" s="1">
+        <v>97</v>
+      </c>
+      <c r="H187" s="1">
+        <v>133907</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" s="1">
+        <v>30</v>
+      </c>
+      <c r="F188" s="1">
+        <v>97</v>
+      </c>
+      <c r="H188" s="1">
+        <v>72532.960000000006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>57993</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E189" s="1">
+        <v>30</v>
+      </c>
+      <c r="F189" s="1">
+        <v>97</v>
+      </c>
+      <c r="H189" s="1">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H190" s="1">
+        <v>963705.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C191" s="1">
+        <v>22529</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" s="1">
+        <v>22530</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E192" s="1">
+        <v>30</v>
+      </c>
+      <c r="F192" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H192" s="1">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="1">
+        <v>22530</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E193" s="1">
+        <v>30</v>
+      </c>
+      <c r="F193" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H193" s="1">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>5765</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C194" s="1">
+        <v>22530</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E194" s="1">
+        <v>30</v>
+      </c>
+      <c r="F194" s="1">
+        <v>97</v>
+      </c>
+      <c r="H194" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="1">
+        <v>22530</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H195" s="1">
+        <v>9924</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C196" s="1">
+        <v>22530</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H196" s="1">
+        <v>9924</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>3749</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C197" s="1">
+        <v>22533</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" s="1">
+        <v>30</v>
+      </c>
+      <c r="F197" s="1">
+        <v>4300</v>
+      </c>
+      <c r="G197" s="1">
+        <v>4300</v>
+      </c>
+      <c r="H197" s="1">
+        <v>-2124.38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="1">
+        <v>22533</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H198" s="1">
+        <v>-2124.38</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="1">
+        <v>22533</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E199" s="1">
+        <v>30</v>
+      </c>
+      <c r="F199" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2124.38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="1">
+        <v>22533</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2124.38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C201" s="1">
+        <v>22533</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>3122</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E202" s="1">
+        <v>30</v>
+      </c>
+      <c r="F202" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G202" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H202" s="1">
+        <v>-48653</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>3749</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C203" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="1">
+        <v>30</v>
+      </c>
+      <c r="F203" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G203" s="1">
+        <v>4236</v>
+      </c>
+      <c r="H203" s="1">
+        <v>3999.01</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H204" s="1">
+        <v>-44653.99</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="1">
+        <v>30</v>
+      </c>
+      <c r="F205" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H205" s="1">
+        <v>6183.75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E206" s="1">
+        <v>30</v>
+      </c>
+      <c r="F206" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H206" s="1">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E207" s="1">
+        <v>30</v>
+      </c>
+      <c r="F207" s="1">
+        <v>97</v>
+      </c>
+      <c r="H207" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>5765</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E208" s="1">
+        <v>30</v>
+      </c>
+      <c r="F208" s="1">
+        <v>97</v>
+      </c>
+      <c r="H208" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>57993</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E209" s="1">
+        <v>30</v>
+      </c>
+      <c r="F209" s="1">
+        <v>97</v>
+      </c>
+      <c r="H209" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H210" s="1">
+        <v>12654.75</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C211" s="1">
+        <v>22535</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H211" s="1">
+        <v>-31999.24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>3741</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C212" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E212" s="1">
+        <v>30</v>
+      </c>
+      <c r="F212" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G212" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H212" s="1">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>3749</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E213" s="1">
+        <v>30</v>
+      </c>
+      <c r="F213" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G213" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H213" s="1">
+        <v>261183.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H214" s="1">
+        <v>-38816.199999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E215" s="1">
+        <v>30</v>
+      </c>
+      <c r="F215" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H215" s="1">
+        <v>33728.269999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>56911</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E216" s="1">
+        <v>30</v>
+      </c>
+      <c r="F216" s="1">
+        <v>4300</v>
+      </c>
+      <c r="H216" s="1">
+        <v>5087.93</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H217" s="1">
+        <v>38816.199999999997</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C218" s="1">
+        <v>22536</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="1">
+        <v>30</v>
+      </c>
+      <c r="F219" s="1">
+        <v>1267</v>
+      </c>
+      <c r="G219" s="1">
+        <v>1267</v>
+      </c>
+      <c r="H219" s="1">
+        <v>-325784</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E220" s="1">
+        <v>30</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1267</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1267</v>
+      </c>
+      <c r="H220" s="1">
+        <v>219412.96</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H221" s="1">
+        <v>-106371.04</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C222" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E222" s="1">
+        <v>30</v>
+      </c>
+      <c r="F222" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H222" s="1">
+        <v>25415.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E223" s="1">
+        <v>30</v>
+      </c>
+      <c r="F223" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H223" s="1">
+        <v>15964.68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E224" s="1">
+        <v>30</v>
+      </c>
+      <c r="F224" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H224" s="1">
+        <v>33107.03</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>5771</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C225" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" s="1">
+        <v>30</v>
+      </c>
+      <c r="F225" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H225" s="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>57951</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" s="1">
+        <v>30</v>
+      </c>
+      <c r="F226" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H226" s="1">
+        <v>16548.87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>57961</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E227" s="1">
+        <v>30</v>
+      </c>
+      <c r="F227" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H227" s="1">
+        <v>11881.92</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>57993</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E228" s="1">
+        <v>30</v>
+      </c>
+      <c r="F228" s="1">
+        <v>97</v>
+      </c>
+      <c r="H228" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>5922</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C229" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="1">
+        <v>30</v>
+      </c>
+      <c r="F229" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H229" s="1">
+        <v>53.24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>7351</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C230" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" s="1">
+        <v>30</v>
+      </c>
+      <c r="F230" s="1">
+        <v>1267</v>
+      </c>
+      <c r="H230" s="1">
+        <v>-74216</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>7831</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C231" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231" s="1">
+        <v>30</v>
+      </c>
+      <c r="F231" s="1">
+        <v>4301</v>
+      </c>
+      <c r="H231" s="1">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>7831</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C232" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" s="1">
+        <v>30</v>
+      </c>
+      <c r="F232" s="1">
+        <v>4501</v>
+      </c>
+      <c r="H232" s="1">
+        <v>50716</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H233" s="1">
+        <v>106371.04</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C234" s="1">
+        <v>22537</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>3711</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C235" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E235" s="1">
+        <v>30</v>
+      </c>
+      <c r="F235" s="1">
+        <v>3100</v>
+      </c>
+      <c r="G235" s="1">
+        <v>2199</v>
+      </c>
+      <c r="H235" s="1">
+        <v>-97423</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>3729</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E236" s="1">
+        <v>30</v>
+      </c>
+      <c r="F236" s="1">
+        <v>4400</v>
+      </c>
+      <c r="G236" s="1">
+        <v>4400</v>
+      </c>
+      <c r="H236" s="1">
+        <v>7589.02</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H237" s="1">
+        <v>-89833.98</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C238" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E238" s="1">
+        <v>30</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H238" s="1">
+        <v>57515</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E239" s="1">
+        <v>30</v>
+      </c>
+      <c r="F239" s="1">
+        <v>97</v>
+      </c>
+      <c r="H239" s="1">
+        <v>14378.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E240" s="1">
+        <v>30</v>
+      </c>
+      <c r="F240" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H240" s="1">
+        <v>-876.05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E241" s="1">
+        <v>30</v>
+      </c>
+      <c r="F241" s="1">
+        <v>97</v>
+      </c>
+      <c r="H241" s="1">
+        <v>1840.48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E242" s="1">
+        <v>30</v>
+      </c>
+      <c r="F242" s="1">
+        <v>97</v>
+      </c>
+      <c r="H242" s="1">
+        <v>13803.6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E243" s="1">
+        <v>30</v>
+      </c>
+      <c r="F243" s="1">
+        <v>97</v>
+      </c>
+      <c r="H243" s="1">
+        <v>7476.95</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H244" s="1">
+        <v>94138.73</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C245" s="1">
+        <v>22538</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H245" s="1">
+        <v>4304.75</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E246" s="1">
+        <v>30</v>
+      </c>
+      <c r="F246" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H246" s="1">
+        <v>160.16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E247" s="1">
+        <v>30</v>
+      </c>
+      <c r="F247" s="1">
+        <v>97</v>
+      </c>
+      <c r="H247" s="1">
+        <v>40.04</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E248" s="1">
+        <v>30</v>
+      </c>
+      <c r="F248" s="1">
+        <v>97</v>
+      </c>
+      <c r="H248" s="1">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C249" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E249" s="1">
+        <v>30</v>
+      </c>
+      <c r="F249" s="1">
+        <v>97</v>
+      </c>
+      <c r="H249" s="1">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E250" s="1">
+        <v>30</v>
+      </c>
+      <c r="F250" s="1">
+        <v>97</v>
+      </c>
+      <c r="H250" s="1">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H251" s="1">
+        <v>264.58999999999997</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C252" s="1">
+        <v>22539</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H252" s="1">
+        <v>264.58999999999997</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" s="1">
+        <v>30</v>
+      </c>
+      <c r="F253" s="1">
+        <v>1158</v>
+      </c>
+      <c r="G253" s="1">
+        <v>1269</v>
+      </c>
+      <c r="H253" s="1">
+        <v>-1830000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254" s="1">
+        <v>30</v>
+      </c>
+      <c r="F254" s="1">
+        <v>1113</v>
+      </c>
+      <c r="G254" s="1">
+        <v>1269</v>
+      </c>
+      <c r="H254" s="1">
+        <v>926433.87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E255" s="1">
+        <v>30</v>
+      </c>
+      <c r="F255" s="1">
+        <v>1158</v>
+      </c>
+      <c r="G255" s="1">
+        <v>1269</v>
+      </c>
+      <c r="H255" s="1">
+        <v>11909.13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H256" s="1">
+        <v>-891657</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="1">
+        <v>30</v>
+      </c>
+      <c r="F257" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H257" s="1">
+        <v>73671.92</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" s="1">
+        <v>30</v>
+      </c>
+      <c r="F258" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H258" s="1">
+        <v>445144.89</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E259" s="1">
+        <v>30</v>
+      </c>
+      <c r="F259" s="1">
+        <v>97</v>
+      </c>
+      <c r="H259" s="1">
+        <v>129704.22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260" s="1">
+        <v>30</v>
+      </c>
+      <c r="F260" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H260" s="1">
+        <v>5745.23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E261" s="1">
+        <v>30</v>
+      </c>
+      <c r="F261" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H261" s="1">
+        <v>843.06</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>5691</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C262" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" s="1">
+        <v>30</v>
+      </c>
+      <c r="F262" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H262" s="1">
+        <v>22498.82</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>5721</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E263" s="1">
+        <v>30</v>
+      </c>
+      <c r="F263" s="1">
+        <v>97</v>
+      </c>
+      <c r="H263" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E264" s="1">
+        <v>30</v>
+      </c>
+      <c r="F264" s="1">
+        <v>97</v>
+      </c>
+      <c r="H264" s="1">
+        <v>16602.13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>5752</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C265" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E265" s="1">
+        <v>30</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H265" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>5762</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C266" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E266" s="1">
+        <v>30</v>
+      </c>
+      <c r="F266" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H266" s="1">
+        <v>4000.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>5771</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E267" s="1">
+        <v>30</v>
+      </c>
+      <c r="F267" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H267" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>57911</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C268" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E268" s="1">
+        <v>30</v>
+      </c>
+      <c r="F268" s="1">
+        <v>97</v>
+      </c>
+      <c r="H268" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E269" s="1">
+        <v>30</v>
+      </c>
+      <c r="F269" s="1">
+        <v>97</v>
+      </c>
+      <c r="H269" s="1">
+        <v>124516.05</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E270" s="1">
+        <v>30</v>
+      </c>
+      <c r="F270" s="1">
+        <v>97</v>
+      </c>
+      <c r="H270" s="1">
+        <v>67446.179999999993</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H271" s="1">
+        <v>891657</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C272" s="1">
+        <v>22540</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>3741</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C273" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E273" s="1">
+        <v>10</v>
+      </c>
+      <c r="F273" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G273" s="1">
+        <v>4235</v>
+      </c>
+      <c r="H273" s="1">
+        <v>-131251.01</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>3749</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E274" s="1">
+        <v>10</v>
+      </c>
+      <c r="F274" s="1">
+        <v>4500</v>
+      </c>
+      <c r="G274" s="1">
+        <v>4235</v>
+      </c>
+      <c r="H274" s="1">
+        <v>102825.66</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H275" s="1">
+        <v>-28425.35</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C276" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E276" s="1">
+        <v>10</v>
+      </c>
+      <c r="F276" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H276" s="1">
+        <v>7083.35</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>4382</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C277" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E277" s="1">
+        <v>10</v>
+      </c>
+      <c r="F277" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H277" s="1">
+        <v>566.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>4821</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E278" s="1">
+        <v>10</v>
+      </c>
+      <c r="F278" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H278" s="1">
+        <v>823.22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C279" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E279" s="1">
+        <v>10</v>
+      </c>
+      <c r="F279" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H279" s="1">
+        <v>6913.73</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C280" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E280" s="1">
+        <v>30</v>
+      </c>
+      <c r="F280" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H280" s="1">
+        <v>-447.78</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C281" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E281" s="1">
+        <v>30</v>
+      </c>
+      <c r="F281" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H281" s="1">
+        <v>447.78</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C282" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="1">
+        <v>10</v>
+      </c>
+      <c r="F282" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H282" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C283" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E283" s="1">
+        <v>10</v>
+      </c>
+      <c r="F283" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H283" s="1">
+        <v>9093.16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C284" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E284" s="1">
+        <v>10</v>
+      </c>
+      <c r="F284" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H284" s="1">
+        <v>386.47</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>57951</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E285" s="1">
+        <v>10</v>
+      </c>
+      <c r="F285" s="1">
+        <v>3100</v>
+      </c>
+      <c r="H285" s="1">
+        <v>1927.92</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>57951</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E286" s="1">
+        <v>10</v>
+      </c>
+      <c r="F286" s="1">
+        <v>97</v>
+      </c>
+      <c r="H286" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H287" s="1">
+        <v>28425.35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C288" s="1">
+        <v>22541</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>3024</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C289" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E289" s="1">
+        <v>10</v>
+      </c>
+      <c r="F289" s="1">
+        <v>97</v>
+      </c>
+      <c r="G289" s="1">
+        <v>97</v>
+      </c>
+      <c r="H289" s="1">
+        <v>-98971</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C290" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H290" s="1">
+        <v>-98971</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C291" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E291" s="1">
+        <v>10</v>
+      </c>
+      <c r="F291" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H291" s="1">
+        <v>60699.79</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E292" s="1">
+        <v>10</v>
+      </c>
+      <c r="F292" s="1">
+        <v>97</v>
+      </c>
+      <c r="H292" s="1">
+        <v>13869.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E293" s="1">
+        <v>10</v>
+      </c>
+      <c r="F293" s="1">
+        <v>97</v>
+      </c>
+      <c r="H293" s="1">
+        <v>1942.39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C294" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E294" s="1">
+        <v>10</v>
+      </c>
+      <c r="F294" s="1">
+        <v>97</v>
+      </c>
+      <c r="H294" s="1">
+        <v>14567.95</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C295" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E295" s="1">
+        <v>10</v>
+      </c>
+      <c r="F295" s="1">
+        <v>97</v>
+      </c>
+      <c r="H295" s="1">
+        <v>7890.97</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H296" s="1">
+        <v>98971</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C297" s="1">
+        <v>22542</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C298" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E298" s="1">
+        <v>30</v>
+      </c>
+      <c r="F298" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H298" s="1">
+        <v>306491.86</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>4030</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E299" s="1">
+        <v>30</v>
+      </c>
+      <c r="F299" s="1">
+        <v>97</v>
+      </c>
+      <c r="H299" s="1">
+        <v>-481705.39</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C300" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E300" s="1">
+        <v>30</v>
+      </c>
+      <c r="F300" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H300" s="1">
+        <v>-792.54</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C301" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E301" s="1">
+        <v>30</v>
+      </c>
+      <c r="F301" s="1">
+        <v>97</v>
+      </c>
+      <c r="H301" s="1">
+        <v>-43803.37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E302" s="1">
+        <v>30</v>
+      </c>
+      <c r="F302" s="1">
+        <v>97</v>
+      </c>
+      <c r="H302" s="1">
+        <v>-5606.84</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C303" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E303" s="1">
+        <v>30</v>
+      </c>
+      <c r="F303" s="1">
+        <v>97</v>
+      </c>
+      <c r="H303" s="1">
+        <v>-42051.24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C304" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E304" s="1">
+        <v>30</v>
+      </c>
+      <c r="F304" s="1">
+        <v>97</v>
+      </c>
+      <c r="H304" s="1">
+        <v>-22777.77</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C305" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H305" s="1">
+        <v>-290245.28999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C306" s="1">
+        <v>22580</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H306" s="1">
+        <v>-290245.28999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C307" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E307" s="1">
+        <v>30</v>
+      </c>
+      <c r="F307" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H307" s="1">
+        <v>200053.12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C308" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E308" s="1">
+        <v>30</v>
+      </c>
+      <c r="F308" s="1">
+        <v>97</v>
+      </c>
+      <c r="H308" s="1">
+        <v>50013.25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E309" s="1">
+        <v>30</v>
+      </c>
+      <c r="F309" s="1">
+        <v>97</v>
+      </c>
+      <c r="H309" s="1">
+        <v>6401.71</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E310" s="1">
+        <v>30</v>
+      </c>
+      <c r="F310" s="1">
+        <v>97</v>
+      </c>
+      <c r="H310" s="1">
+        <v>48012.77</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C311" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E311" s="1">
+        <v>30</v>
+      </c>
+      <c r="F311" s="1">
+        <v>97</v>
+      </c>
+      <c r="H311" s="1">
+        <v>26006.92</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H312" s="1">
+        <v>330487.77</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C313" s="1">
+        <v>225898</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H313" s="1">
+        <v>330487.77</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>3062</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C314" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E314" s="1">
+        <v>30</v>
+      </c>
+      <c r="F314" s="1">
+        <v>97</v>
+      </c>
+      <c r="G314" s="1">
+        <v>97</v>
+      </c>
+      <c r="H314" s="1">
+        <v>-2113114.04</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>30621</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C315" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E315" s="1">
+        <v>30</v>
+      </c>
+      <c r="F315" s="1">
+        <v>97</v>
+      </c>
+      <c r="G315" s="1">
+        <v>97</v>
+      </c>
+      <c r="H315" s="1">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>30622</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C316" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E316" s="1">
+        <v>30</v>
+      </c>
+      <c r="F316" s="1">
+        <v>97</v>
+      </c>
+      <c r="G316" s="1">
+        <v>97</v>
+      </c>
+      <c r="H316" s="1">
+        <v>-1017500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>30649</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C317" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E317" s="1">
+        <v>30</v>
+      </c>
+      <c r="F317" s="1">
+        <v>97</v>
+      </c>
+      <c r="G317" s="1">
+        <v>97</v>
+      </c>
+      <c r="H317" s="1">
+        <v>200622.22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>306888</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C318" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E318" s="1">
+        <v>30</v>
+      </c>
+      <c r="F318" s="1">
+        <v>97</v>
+      </c>
+      <c r="G318" s="1">
+        <v>97</v>
+      </c>
+      <c r="H318" s="1">
+        <v>530883.34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>306889</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C319" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E319" s="1">
+        <v>30</v>
+      </c>
+      <c r="F319" s="1">
+        <v>97</v>
+      </c>
+      <c r="G319" s="1">
+        <v>97</v>
+      </c>
+      <c r="H319" s="1">
+        <v>248419.28</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C320" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H320" s="1">
+        <v>-2350689.2000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C321" s="1">
+        <v>225940</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H321" s="1">
+        <v>-2350689.2000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E322" s="1">
+        <v>30</v>
+      </c>
+      <c r="F322" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H322" s="1">
+        <v>61613.1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>4011</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E323" s="1">
+        <v>30</v>
+      </c>
+      <c r="F323" s="1">
+        <v>97</v>
+      </c>
+      <c r="H323" s="1">
+        <v>-60204</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E324" s="1">
+        <v>30</v>
+      </c>
+      <c r="F324" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H324" s="1">
+        <v>100580.87</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>4012</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C325" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E325" s="1">
+        <v>30</v>
+      </c>
+      <c r="F325" s="1">
+        <v>97</v>
+      </c>
+      <c r="H325" s="1">
+        <v>-25311</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>4013</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C326" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E326" s="1">
+        <v>30</v>
+      </c>
+      <c r="F326" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H326" s="1">
+        <v>-71544</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>4322</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C327" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E327" s="1">
+        <v>30</v>
+      </c>
+      <c r="F327" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H327" s="1">
+        <v>188.67</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C328" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E328" s="1">
+        <v>30</v>
+      </c>
+      <c r="F328" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H328" s="1">
+        <v>5407.39</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C329" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E329" s="1">
+        <v>30</v>
+      </c>
+      <c r="F329" s="1">
+        <v>97</v>
+      </c>
+      <c r="H329" s="1">
+        <v>1283.7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>5511</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C330" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E330" s="1">
+        <v>30</v>
+      </c>
+      <c r="F330" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H330" s="1">
+        <v>841.81</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>5513</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C331" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E331" s="1">
+        <v>30</v>
+      </c>
+      <c r="F331" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H331" s="1">
+        <v>19820.54</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>57213</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C332" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E332" s="1">
+        <v>30</v>
+      </c>
+      <c r="F332" s="1">
+        <v>97</v>
+      </c>
+      <c r="H332" s="1">
+        <v>164.32</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>57990</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C333" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E333" s="1">
+        <v>30</v>
+      </c>
+      <c r="F333" s="1">
+        <v>97</v>
+      </c>
+      <c r="H333" s="1">
+        <v>1232.3900000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>57991</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E334" s="1">
+        <v>30</v>
+      </c>
+      <c r="F334" s="1">
+        <v>97</v>
+      </c>
+      <c r="H334" s="1">
+        <v>667.54</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C335" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H335" s="1">
+        <v>34741.33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C336" s="1">
+        <v>225941</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H336" s="1">
+        <v>34741.33</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>5012</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C337" s="1">
         <v>225952</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H130" s="1">
-        <v>9613.93</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C131" s="1">
+      <c r="D337" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E337" s="1">
+        <v>30</v>
+      </c>
+      <c r="F337" s="1">
+        <v>97</v>
+      </c>
+      <c r="H337" s="1">
+        <v>-105633.41</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="1">
         <v>225952</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H131" s="1">
-        <v>9613.93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H132" s="1">
-        <v>2682482.7400000002</v>
+      <c r="D338" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H338" s="1">
+        <v>-105633.41</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C339" s="1">
+        <v>225952</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H339" s="1">
+        <v>-105633.41</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H340" s="1">
+        <v>-4806.1099999999997</v>
       </c>
     </row>
   </sheetData>
